--- a/book.xlsx
+++ b/book.xlsx
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -365,6 +365,11 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/book.xlsx
+++ b/book.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="16155" windowHeight="8970"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="15600" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -372,6 +372,11 @@
         <v>456</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>789</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/book.xlsx
+++ b/book.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="15600" windowHeight="8970"/>
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -377,6 +377,11 @@
         <v>789</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
